--- a/testdata/NegotiationRequestDetailsTwoPage.xlsx
+++ b/testdata/NegotiationRequestDetailsTwoPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="18510" windowHeight="2295"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="18510" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testdata/NegotiationRequestDetailsTwoPage.xlsx
+++ b/testdata/NegotiationRequestDetailsTwoPage.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="18510" windowHeight="7815"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -64,6 +63,9 @@
     <t>Deal Start Year</t>
   </si>
   <si>
+    <t>Deal End Day</t>
+  </si>
+  <si>
     <t>Deal End month</t>
   </si>
   <si>
@@ -122,9 +124,6 @@
   </si>
   <si>
     <t>clickEnd</t>
-  </si>
-  <si>
-    <t>DealEndDay</t>
   </si>
 </sst>
 </file>
@@ -467,25 +466,25 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" customWidth="1"/>
@@ -515,10 +514,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>13</v>
@@ -527,37 +526,37 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="O1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
-        <v>25</v>
-      </c>
       <c r="R1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -580,28 +579,28 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O2">
         <v>32</v>
@@ -630,28 +629,28 @@
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O3">
         <v>22</v>
